--- a/test_speeches/predictions/Coding_Differneces_134_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_134_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Okay, thank you everyone for joining us.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -519,16 +520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Um, as you know, since last Friday, the number of known covid 19 cases in Pennsylvania has grown from two to 22, and we have another 219 people under investigation.</t>
+          <t>Okay, thank you everyone for joining us.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -556,16 +560,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weve watched as other states, weve watched as other countries have struggled to control this coronavirus and weve learned a lot from their efforts.</t>
+          <t>Um, as you know, since last Friday, the number of known covid 19 cases in Pennsylvania has grown from two to 22, and we have another 219 people under investigation.</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -581,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -593,20 +600,23 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>So beginning tomorrow, Friday, March 13th, were gonna begin significant and decisive social distancing.</t>
+          <t>Weve watched as other states, weve watched as other countries have struggled to control this coronavirus and weve learned a lot from their efforts.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -621,29 +631,32 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>This plan is statewide, but because Montgomery County has seen a rapid growth in the number of cases, residents and workers in Montgomery County are gonna have special provisions in Montgomery County.</t>
+          <t>So beginning tomorrow, Friday, March 13th, were gonna begin significant and decisive social distancing.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -661,26 +674,29 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I am ordering the closure of all schools, community centers, gyms, and entertainment venues.</t>
+          <t>This plan is statewide, but because Montgomery County has seen a rapid growth in the number of cases, residents and workers in Montgomery County are gonna have special provisions in Montgomery County.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -692,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,20 +720,23 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>This includes wise theaters, sporting events, concerts, and I am strongly recommending the closure of non-essential retail facilities.</t>
+          <t>I am ordering the closure of all schools, community centers, gyms, and entertainment venues.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -729,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -741,20 +760,23 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>It includes schools of all type, all types such as pre-K, higher education, and private schools.</t>
+          <t>This includes wise theaters, sporting events, concerts, and I am strongly recommending the closure of non-essential retail facilities.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -766,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -778,20 +800,23 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No mass gathering should be held, including conferences and rallies.</t>
+          <t>It includes schools of all type, all types such as pre-K, higher education, and private schools.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -806,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -815,20 +840,23 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>By closing these facilities, we can control the spread of the disease.</t>
+          <t>No mass gathering should be held, including conferences and rallies.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -840,32 +868,35 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thats the hope, and we can redirect our public safety and health officials to where theyre needed the most.</t>
+          <t>By closing these facilities, we can control the spread of the disease.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -889,20 +920,23 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The health and safety of all Pennsylvanians, thats my primary concern and thats why Im, op.</t>
+          <t>Thats the hope, and we can redirect our public safety and health officials to where theyre needed the most.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -917,25 +951,28 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>, Im ordering all critical infrastructure to remain open.</t>
+          <t>The health and safety of all Pennsylvanians, thats my primary concern and thats why Im, op.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -963,20 +1000,23 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>This includes all healthcare facilities such as pharmacies, urgent care facilities, primary care facilities, outpatient services, long-term care facilities, and of course hospitals.</t>
+          <t>, Im ordering all critical infrastructure to remain open.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -988,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1000,20 +1040,23 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>It also includes gas stations, it includes grocery stores, it includes government, utility, public safety and correctional facilities.</t>
+          <t>This includes all healthcare facilities such as pharmacies, urgent care facilities, primary care facilities, outpatient services, long-term care facilities, and of course hospitals.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1025,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1037,20 +1080,23 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>And it includes mass transit.</t>
+          <t>It also includes gas stations, it includes grocery stores, it includes government, utility, public safety and correctional facilities.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1065,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1074,20 +1120,23 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>My administration is working closely with our transportation partners to ensure that we maintain essential transportation services where possible.</t>
+          <t>And it includes mass transit.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1102,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1111,16 +1160,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amtrak will begin operating a reduced schedule tomorrow in the Ardmore station is gonna be closed for two weeks.</t>
+          <t>My administration is working closely with our transportation partners to ensure that we maintain essential transportation services where possible.</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1148,16 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>That starts tomorrow.</t>
+          <t>Amtrak will begin operating a reduced schedule tomorrow in the Ardmore station is gonna be closed for two weeks.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1185,16 +1240,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Were also working directly with SEPTA to evaluate the potential impact of all of this on mass transit.</t>
+          <t>That starts tomorrow.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1222,20 +1280,23 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>And were gonna continue to provide service updates as they occur.</t>
+          <t>Were also working directly with SEPTA to evaluate the potential impact of all of this on mass transit.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1253,22 +1314,25 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Any state employee traveling in and out of Montgomery County between their workplace and home are being directed to, to work remotely.</t>
+          <t>And were gonna continue to provide service updates as they occur.</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1296,20 +1360,23 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>We will continue to offer essential government services.</t>
+          <t>Any state employee traveling in and out of Montgomery County between their workplace and home are being directed to, to work remotely.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1333,16 +1400,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>So thats what were doing in Montgomery County.</t>
+          <t>We will continue to offer essential government services.</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1370,16 +1440,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Across the state I am strongly three things here, Im strongly encouraging all large gatherings, especially those with more than 250 attendees to be either canceled or postponed.</t>
+          <t>So thats what were doing in Montgomery County.</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1395,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1407,20 +1480,23 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Second, Im discouraging people from going to recreational activities in public places like gyms, movie theaters, and stores.</t>
+          <t>Across the state I am strongly three things here, Im strongly encouraging all large gatherings, especially those with more than 250 attendees to be either canceled or postponed.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1432,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1444,20 +1520,23 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And third, Im asking religious leaders to use their discretion to prevent the spread of illness through their congregations and their communities.</t>
+          <t>Second, Im discouraging people from going to recreational activities in public places like gyms, movie theaters, and stores.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1472,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1481,20 +1560,23 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>These actions may seem severe, but theyre far less draconian than what we may have to do in the future.</t>
+          <t>And third, Im asking religious leaders to use their discretion to prevent the spread of illness through their congregations and their communities.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1503,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1512,26 +1594,29 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>If we dont act now.</t>
+          <t>These actions may seem severe, but theyre far less draconian than what we may have to do in the future.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1543,32 +1628,35 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>We will begin putting this plan into effect for 14 days, for two weeks from tomorrow, and we will continuously evaluate and make changes that ensure the health and welfare of all Pennsylvanians.</t>
+          <t>If we dont act now.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1592,20 +1680,23 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>We all need to work together to halt the spread of the Covid 19 virus.</t>
+          <t>We will begin putting this plan into effect for 14 days, for two weeks from tomorrow, and we will continuously evaluate and make changes that ensure the health and welfare of all Pennsylvanians.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1623,26 +1714,29 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>So, and heres, Im urging all of my fellow Pennsylvanians, do your part, wash your hands for at least 20 seconds with soap and warm water.</t>
+          <t>We all need to work together to halt the spread of the Covid 19 virus.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1654,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1666,20 +1760,23 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Thats the amount of time it takes to sing Happy Birthday twice.</t>
+          <t>So, and heres, Im urging all of my fellow Pennsylvanians, do your part, wash your hands for at least 20 seconds with soap and warm water.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1694,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1703,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cover your coughs and sneezes with your elbow or with tissue.</t>
+          <t>Thats the amount of time it takes to sing Happy Birthday twice.</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1740,23 +1840,26 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wipe down all frequently touched surfaces.</t>
+          <t>Cover your coughs and sneezes with your elbow or with tissue.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1768,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1777,20 +1880,23 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avoid sick people.</t>
+          <t>Wipe down all frequently touched surfaces.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1814,16 +1920,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Stay home if youre not.</t>
+          <t>Avoid sick people.</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1851,20 +1960,23 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Well maintain at least a six foot distance from other people.</t>
+          <t>Stay home if youre not.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1888,16 +2000,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>And please follow the directions Ive given to stay out of public places.</t>
+          <t>Well maintain at least a six foot distance from other people.</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1925,20 +2040,23 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nobody wants to be the person who shares this virus with their office or with a member of their family.</t>
+          <t>And please follow the directions Ive given to stay out of public places.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1953,29 +2071,32 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>So please stay home from work, stay away from family gatherings and stay out of public areas.</t>
+          <t>Nobody wants to be the person who shares this virus with their office or with a member of their family.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1987,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1996,23 +2117,26 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Especially, especially if youre not well.</t>
+          <t>So please stay home from work, stay away from family gatherings and stay out of public areas.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2024,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2036,20 +2160,23 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A full list of symptoms as well as other information.</t>
+          <t>Especially, especially if youre not well.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2067,22 +2194,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>You can get that by clicking the banner at the top of pa.gov</t>
+          <t>A full list of symptoms as well as other information.</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2110,16 +2240,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>And if you feel unwell and you think you may have been exposed to covid 19, you can seek help by calling 1 8 77 PA Health.</t>
+          <t>You can get that by clicking the banner at the top of pa.gov</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2135,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2147,20 +2280,23 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thats 1 8 77 PA Health.</t>
+          <t>And if you feel unwell and you think you may have been exposed to covid 19, you can seek help by calling 1 8 77 PA Health.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2178,22 +2314,25 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>While individuals are playing an essential role in preventing the spread of COVID 19, the Commonwealth is continuing to do everything in its power to slow the rate of inflight infection, and prepare for an outbreak.</t>
+          <t>Thats 1 8 77 PA Health.</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2221,20 +2360,23 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Were constantly updating the COVID 19 information page, which as I said before, is accessible by clicking the banner at the top of pa. Gov</t>
+          <t>While individuals are playing an essential role in preventing the spread of COVID 19, the Commonwealth is continuing to do everything in its power to slow the rate of inflight infection, and prepare for an outbreak.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2252,22 +2394,25 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Our Secretary of Health, Dr. Rachel Levine, has been holding daily briefings to provide the most UpToDate information.</t>
+          <t>Were constantly updating the COVID 19 information page, which as I said before, is accessible by clicking the banner at the top of pa. Gov</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2295,16 +2440,19 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>So now Im gonna turn this over to Dr. Levine for an update.</t>
+          <t>Our Secretary of Health, Dr. Rachel Levine, has been holding daily briefings to provide the most UpToDate information.</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2332,43 +2480,89 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>So now Im gonna turn this over to Dr. Levine for an update.</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Secretary Levine, sorry.</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_134_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_134_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
